--- a/mini/python_playwright/output/万科_1.xlsx
+++ b/mini/python_playwright/output/万科_1.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltBH6xXqYTi5zaYRK0FGk51fVvNYXyYodk7LsXwg7P9aMh4Pq59WQl7Jv67J3mDFNutKchAz0JLNzMw2oJf2n0psLLg99zBJHlFILD1Jn_FPiZRngPFo5YR&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24hwdeO1w0Hb6NugF9QCSBhbFCY-15296zT2OB26rnzNj7acmqXfzIsStugWUGoFONlCcQaNfnnbwUni0x-w4vBzoPGoyNI8rah7ATo5W35Yg==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltBH6xXqYTi5zaYRK0FGk51fVvNYXyYodk7LsXwg7P9aKsfVPKw75KmKkIGXjeHXkbrCdbTfT6altKOVKKmZkKHQTabzUe8TM-t0ki8gNOAEFfYeczT3axL&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27pcdJdl5_fhS1qAy0B_nuKtUOHjR4382ImlF1jNMU-nqBcipx5Mpoj2fIppfznfuBwgzLsEFcYqIrwR6koaSbzDjRinGSfqbIqpgGCAdytlqhhInz0lXIS&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
@@ -571,19 +571,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltBH6xXqYTi5zaYRK0FGk51fVvNYXyYodk7LsXwg7P9aKsfVPKw75Km14CqSUpE7QAnuRaXw4hls3OWMaO7T0MeKkZsRLJTqhhF9aZvDvRXTi_ocIS7dkKq&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27pcdJdl5_fhS1qAy0B_nuKtUOHjR4382ImlF1jNMU-nqBcipx5MpojcymWbKb-7J8R3kKNdxUzRTDysaKcBCfGxAa7IDzwfGuSQ5lrEV3fSF7ixcNlZJwk&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>头部房企11月销售回暖</t>
+          <t>银行提供大额授信  优质房企感受融资暖意</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>董添</t>
+          <t>石诗语</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-12-08</t>
+          <t>2022-12-07</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -601,24 +601,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>上市房企日前陆续披露11月销售业绩。从销售情况看，头部企业恢复相对较好。机构数据显示，11月百强房企中有近四成企业实现业绩环比增长。业内人士表示，支持企业融资的“三支箭”加快落地，房企资金压力有望得到缓解，有助于稳定市场主体预期。此外，多地继续优化楼</t>
+          <t>“金融16条”发布以来，多家银行为房地产企业提供大额授信，多措并举助力房地产市场平稳健康发展。中国证券报记者梳理已披露具体授信金额的银行公告发现，目前商业银行给予房地产企业意向授信额度合计高达3.1万亿元，为房地产企业提供多元化综合金融服务。业内人士</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltBH6xXqYTi5zaYRK0FGk51fVvNYXyYodk7LsXwg7P9aGcY3rIuhsqXEIZqQzoK0V4R2byGmFbCCVrjDK-0gQ4LNgo4-gHjujAOc-dybg31r_pA9QXHjzVc&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27pcdJdl5_fhS1qAy0B_nuKtUOHjR4382ImlF1jNMU-npZP3QhQ14ZmJifBMUP0tvkZRClQ2uizlqGs8-Zo-rrjJQuFcX9kosEKP2kN-RezhBGLU3Bm2ZVL&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>银行提供大额授信  优质房企感受融资暖意</t>
+          <t>部分房企10月销售额环比增长</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>石诗语</t>
+          <t>董添</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2022-12-07</t>
+          <t>2022-11-05</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -636,24 +636,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>“金融16条”发布以来，多家银行为房地产企业提供大额授信，多措并举助力房地产市场平稳健康发展。中国证券报记者梳理已披露具体授信金额的银行公告发现，目前商业银行给予房地产企业意向授信额度合计高达3.1万亿元，为房地产企业提供多元化综合金融服务。业内人士</t>
+          <t>近期，上市房企陆续披露10月份销售数据。部分房企10月份销售金额实现环比增长，同时前10个月销售金额同比下滑幅度有所收窄。销售有所改善10月份，碧桂园、保利发展等头部房企销售金额环比有所增长。碧桂园11月3日发布的销售数据显示，10月，集团连</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30fZNlP2bEFGavx16av7Mrer-TB8ar8pq2AGFY0nZA3HTa8KQqFn5NVGn6GidCFO6l0KjxrpkR8kX&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27eF4I6kdKrkczDufz9kHTdqwhrD5ZcmhTo9YHQ7kOOtjrOacSN9TWW99zrj1_mvjhXXuc9fRb-7O3_0OoQ96oE--8xMBoTCcpFOzZ7vF1-S6EWjIziYdNv&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>国有大行释放“融融”暖意  房企获得多元化资金支持</t>
+          <t>部分房企8月销售额实现同比增长</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>王方圆</t>
+          <t>董添</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-09-21</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -671,19 +671,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11月23日至11月24日期间，六家国有大型银行密集与房地产企业签署战略合作协议，提供包括信贷资金在内的多种金融支持，为促进房地产行业良性循环和平稳健康发展积极贡献力量。专家</t>
+          <t>近期，上市房企陆续披露8月份销售业绩，部分房企销售额实现同比增长。随着销售端逐步企稳，不少房企拿地积极性有所提高。销售企稳部分房企8月销售金额实现环比增长。2022年8月，华侨城A实现合同销售面积24.9万平方米，合同</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30U-qg5RQD4Ey1QYZc6iu0p89h_wbOI3zczkPmYQQzCYtJMRcc-LlqUM8Zj1kSatI45s93JoJGcbX&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27eF4I6kdKrkczDufz9kHTdqwhrD5ZcmhTo9YHQ7kOOtmTYp_8Sh8sys0o8qO7PTzmsghq4ItUr7GV7rNYpGXRCVDGcivPwm74FgxYfReEhh5ub_72be_1s&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>部分房企10月销售额环比增长</t>
+          <t>上市房企8月销售进一步分化</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2022-11-05</t>
+          <t>2022-09-07</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -706,24 +706,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>近期，上市房企陆续披露10月份销售数据。部分房企10月份销售金额实现环比增长，同时前10个月销售金额同比下滑幅度有所收窄。销售有所改善10月份，碧桂园、保利发展等头部房企销售金额环比有所增长。碧桂园11月3日发布的销售数据显示，10月，集团连</t>
+          <t>近期，上市房企陆续披露2022年8月销售简报，销售情况进一步分化。部分大中型房企8月销售金额虽仍处于低位，但环比已有所好转。业内人士表示，目前行业进入“金九银十”销售旺季，随着前期稳楼市政策持续显效，消费者购房预期有望好转。对于房企来说，提振销售业绩</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30U-qg5RQD4EyV74MWUtQlgESJBBX8izkd5KVXaOOLADJA1TJtcReEK8jpVRLgGH4aOLiQvnP50ZV&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27eF4I6kdKrkczDufz9kHTdqwhrD5ZcmhTo9YHQ7kOOtmTYp_8Sh8syQi5fGzD8lXfUHf1xaVFxpwoVvRQk8zUXYkXYRSRAytA6XgSB7pa-WcjB-gmyHJCT&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>部分房企8月销售额实现同比增长</t>
+          <t>万物云向港交所递交上市申请</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>董添</t>
+          <t>齐金钊</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -733,7 +733,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-09-21</t>
+          <t>2022-04-02</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -741,19 +741,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>近期，上市房企陆续披露8月份销售业绩，部分房企销售额实现同比增长。随着销售端逐步企稳，不少房企拿地积极性有所提高。销售企稳部分房企8月销售金额实现环比增长。2022年8月，华侨城A实现合同销售面积24.9万平方米，合同销售金额52.9亿元；2</t>
+          <t>4月1日，万科集团子公司万物云空间科技服务股份有限公司(简称“万物云”)向港交所递交上市申请。招股书显示，万物云建立了社区空间居住消费服务、商企和城市空间综合服务、系列远程空间科技运营服务等业务模式。从2011年到2021年，万物云的总收入规模增长超过1</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30RbTY96sMaF8ZPhE0WA9OdtVrjC5olw_JjQBkzAYolb4_7yuedvUmKzV8jJh7Gaxr622rN5GJNN6&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27eF4I6kdKrkczDufz9kHTdqwhrD5ZcmhTo9YHQ7kOOtvMt4o-sLpvnfY8Nf5RICumVlZwhf8LaBs01DGP_k0mfVjwMVHpiunv2cZkGnKAJ8_nvfhmxhgqD&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>上市房企8月销售进一步分化</t>
+          <t>2021年头部房企销售业绩出现分化</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-09-07</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -776,24 +776,24 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>近期，上市房企陆续披露2022年8月销售简报，销售情况进一步分化。部分大中型房企8月销售金额虽仍处于低位，但环比已有所好转。业内人士表示，目前行业进入“金九银十”销售旺季，随着前期稳楼市政策持续显效，消费者购房预期有望好转。对于房企来说，提振销售业绩</t>
+          <t>随着上市房企2021年12月销售业绩披露进入尾声，头部房企2021年销售情况浮出水面，TOP5房企中，仅融创中国、保利发展全年销售业绩出现同比增长，其余3家均出现不同程度下滑。$$整体销售出现下滑$$从第一梯队房企销售业绩看，销售整体欠佳。销售总</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30RbTY96sMaF8xH5tT2UYlfjzm_u1qFF9b_tySsLvMB7W1JeVET73D2uE8CYPmArj_xR7P6tp0d4T&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph275NwfAmfuSDBXuwHw-HmE6cII5E8mW29ZadslWQ_WArbqx8beTewX6QrbVbzQU5fyncbgOyTK5pE4j10B-G9aHuENSQQR0ddMY19suxH7xcdIL2h4xcc2g&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021年房地产行业利润率持续下行</t>
+          <t>部分头部房企11月销售表现稳健</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>武卫红</t>
+          <t>董添</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -803,32 +803,32 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-04-28</t>
+          <t>2021-12-07</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>房企2021年年报披露即将收官。受房地产市场下行等因素影响，2021年房地产行业利润增速继续下行，房企利润率降至历史较低水平。机构表示，短期房地产行业利润水平仍面临压力，中长期有望逐步触底回升。头部房企毛利率下滑受房地产市场下行等不确定因素影响，</t>
+          <t>近期，上市房企密集披露11月销售情况。头部房企销售相对坚挺，拿地较为积极。部分中小房企销售、拿地均明显放缓。机构认为，随着住房信贷环境逐步改善，房企年底有望冲刺业绩小高峰。$$销售分化明显$$万科A等头部房企11月销售额环比小幅上涨，并新增了开发</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30dkQD87tayChZWGm745gn2CDD9JP5Yty05M5TODbdmEO3aXWl5NWJOqno0zg5ANVCeveTqIjkxQ_&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph275NwfAmfuSDBXuwHw-HmE6cII5E8mW29ZadslWQ_WArTqVBJqtQ5ippuOJnp8MtqWYSmuLi_783z1dUHUadAumH1ubatQhgjAINQMCWRQ8QYZv_elR7shR&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>万物云向港交所递交上市申请</t>
+          <t>深圳证券交易所初建时“惊心动魄”</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>齐金钊</t>
+          <t>禹国刚昝秀丽深圳证券交易所</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -838,32 +838,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2020-12-18</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4月1日，万科集团子公司万物云空间科技服务股份有限公司(简称“万物云”)向港交所递交上市申请。招股书显示，万物云建立了社区空间居住消费服务、商企和城市空间综合服务、系列远程空间科技运营服务等业务模式。从2011年到2021年，万物云的总收入规模增长超过1</t>
+          <t>我生在陕南，长在关中，作为土生土长的陕西人，大学毕业后能放弃不错的薪酬来到当时还是一片荒地的深圳发展，是有缘分的。$$1980年8月26日，全国人大常委会批准在深圳建立经济特区。在一位广东亲戚的鼓励下，我变卖了家里一台三洋收音机和一台14英寸黑白电视</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30dkQD87tayChOeU_JLk9Dd6RchuRMcEWmUm_O3LDkQYUPQyZ9wbd9pH6NAVZirzirPQNM3POztUW&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph275NwfAmfuSDBXuwHw-HmE6cII5E8mW29ZadslWQ_WArd0roxI1zZGGB_CBFAs8Ioz94dOpY4ksJ8DhBcgm_K1vFGw3l1ix7NqJddozItVV2MZRg1CCn7dQ&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021年头部房企销售业绩出现分化</t>
+          <t>四大门派跑马圈地  长租公寓市场如火如荼</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>董添</t>
+          <t>任明杰;江钰铃</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -873,32 +873,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-01-19</t>
+          <t>2018-03-22</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>随着上市房企2021年12月销售业绩披露进入尾声，头部房企2021年销售情况浮出水面，TOP5房企中，仅融创中国、保利发展全年销售业绩出现同比增长，其余3家均出现不同程度下滑。$$整体销售出现下滑$$从第一梯队房企销售业绩看，销售整体欠佳。销售总</t>
+          <t>“大家都在抓紧时间上规模，我们今年也计划再签3万间长租公寓。”某长租公寓品牌负责人告诉中国证券报记者。2015年以来，随着“租购并举”政策风起，大型房企、中介机构、酒店集团、创业公司大举进军长租公寓市场。特别是2017年以来，随着存量房时代的到来，长租公</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30YjWcDcCOBiFEXd5T8uGnwc29cLv5UtwNrvrZP-KutWCaNFrW7KP64qsPEhYjsq1Y89uiox11ruL&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph275NwfAmfuSDBXuwHw-HmE6cII5E8mW29ZadslWQ_WArWQfTuvWah6uSKD_awnTU0XU7RjkG0eyV2WAv2rzNFnIHjSfhD7QFCNvURsQYb5IriZVUBB11n-n&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>部分头部房企11月销售表现稳健</t>
+          <t>A股再现举牌潮  “买家”逻辑浮出水面</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>董添</t>
+          <t>黄淑慧;徐金忠</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -908,32 +908,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2016-09-28</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>近期，上市房企密集披露11月销售情况。头部房企销售相对坚挺，拿地较为积极。部分中小房企销售、拿地均明显放缓。机构认为，随着住房信贷环境逐步改善，房企年底有望冲刺业绩小高峰。$$销售分化明显$$万科A等头部房企11月销售额环比小幅上涨，并新增了开发</t>
+          <t>继2015年年底的“举牌潮”之后，2016年三季度各路资金再度发力，已经有20多家上市公司被举牌。恒大介入万科股权之争、阳光保险举牌伊利股份，更是一石激起千层浪。$$“举牌潮”引发市场各方高度关注，这是“门口的野蛮人”搅动市场，是“股东积极主义”新</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsHfffPIA_l48BdB7GrzuT2trhkkj3BLMWIXSWn0AC30WZdwWbG7bf-pjcDGWjqObVPKe7zKVWyHq9ig3S-Hvtsa2gm45Nsqwtc4PMHPgiFaRQPBVY96Kn4&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph272d-ZPhgClLgPvVtut0Y-Mp6d2GZUlg0DFPQzM9jNrQTilFWAGsjqwBqiC92xdcr0-yppEonmzPoa1ptlPJnXI3cRICjj_B8urHPU0TYWfvqsjOJ0w-Y1j&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>万科郁亮：房地产行业“阵痛”之后仍有机会</t>
+          <t>信披合规底线不容挑战</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>齐金钊张军</t>
+          <t>费杨生</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -943,32 +943,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-10-23</t>
+          <t>2016-08-09</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>10月22日，万科举行年度业务交流会。万科董事会主席郁亮对当前房地产行业的基本看法概括为十六个字：“尊重常识，回归常态，阵痛之后，仍有机会。”他表示，经历过政策红利、金融红利之后，房地产行业正迎来新的常态化发展阶段。在去杠杆、去金融化的行业“缩表”过程中</t>
+          <t>“谁到底买没买万科”成为近日资本市场关注的焦点，万科A股价亦在各种传闻中连续上涨。再联系此前“宝万华大战”中各方的明争暗斗，某种程度来说，“万科事件”演变至今，正在挑战信息披露合法合规的底线。$$“万科事件”暴露的信息披露问题主要包括两大方面。一是</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGhP1rvbVrov73Oq_s3UalLVSJWXapaXNgMaSUhCVxmNI15CjmfCCxFrpwS2ycRb9huR060cCrr_Q&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph272d-ZPhgClLgPvVtut0Y-Mp6d2GZUlg0DFPQzM9jNrQVTDynwHbHVik7ffLO6UOxAt1M6rpowfDeOCU2FADItf82spm94AH5dikpWdERWiXZl369f2ZQgh&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>深圳证券交易所初建时“惊心动魄”</t>
+          <t>资金鏖战万科  两百亿筹码打出“权重热”</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>禹国刚昝秀丽深圳证券交易所</t>
+          <t>徐伟平</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -978,32 +978,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2020-12-18</t>
+          <t>2016-07-07</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>我生在陕南，长在关中，作为土生土长的陕西人，大学毕业后能放弃不错的薪酬来到当时还是一片荒地的深圳发展，是有缘分的。$$1980年8月26日，全国人大常委会批准在深圳建立经济特区。在一位广东亲戚的鼓励下，我变卖了家里一台三洋收音机和一台14英寸黑白电视</t>
+          <t>年度大戏“万科归来”本周在A股上演。万科A复牌首日一字跌停，筹码蜂拥而出。但在第二个跌停板上，宝能系大手笔增持，当日万科A虽然没有打开跌停板，但成交显著放大。$$周三大戏渐入高潮。万科A早盘低开冲高，而后快速回落，全天均在震荡，临近收盘抢筹资金涌入</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGiG4ZWRito87CWPR455LO_16rHXI3X99nnA8P63v8-RWcaR31ve5-V_lQGFRya0m90I4YI_TVg9X&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph272d-ZPhgClLgPvVtut0Y-Mp6d2GZUlg0DFPQzM9jNrQdxZMwwJbbuf0pNnduyNBjE-R76y2lJCcpjtlZGR6wEnuztvtvbkQvSqYztQoQReleSaQm-urfcp&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>四大门派跑马圈地  长租公寓市场如火如荼</t>
+          <t>万科商战硝烟漫天  公司治理警钟长鸣</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>任明杰;江钰铃</t>
+          <t>张莉</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1013,32 +1013,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2018-03-22</t>
+          <t>2016-06-30</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>“大家都在抓紧时间上规模，我们今年也计划再签3万间长租公寓。”某长租公寓品牌负责人告诉中国证券报记者。2015年以来，随着“租购并举”政策风起，大型房企、中介机构、酒店集团、创业公司大举进军长租公寓市场。特别是2017年以来，随着存量房时代的到来，长租公</t>
+          <t>从去年“宝能系”大举收购万科股权、安邦保险抢筹进场，到近期万科重组预案遭股东方华润集团强势反对，再到万科“内部人控制”纷争四起，近一年来，在多方利益纠缠、市场人士陆续站队喊话以及监管部门介入的情况下，围绕万科股权争夺的商业版“权力游戏”似有愈演愈烈之意。</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGgtC6V2TG7QGkLAMOeEwTKZ06omn_o0Esu1w_fR_5knJq1dFVWP3JL3QlZIb__JAS1hPrZr1EiCf&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27Dc5veya0AwfRfqfvQXNJnkQjuXmviil3ciJ5qqdT6FxqKQiepbgJw5FilH3udq2bk4-ZWRBrYl5zc6RDR6ODF4ERhn6BNq6VDpsJchO4bhULo5C8VicP8&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A股再现举牌潮  “买家”逻辑浮出水面</t>
+          <t>REITs  梦想照进现实</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黄淑慧;徐金忠</t>
+          <t>张昊</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1048,32 +1048,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2016-09-28</t>
+          <t>2015-06-27</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>继2015年年底的“举牌潮”之后，2016年三季度各路资金再度发力，已经有20多家上市公司被举牌。恒大介入万科股权之争、阳光保险举牌伊利股份，更是一石激起千层浪。$$“举牌潮”引发市场各方高度关注，这是“门口的野蛮人”搅动市场，是“股东积极主义”新</t>
+          <t>曾经被中国房地产人士期盼已久的REITs（房地产信托投资基金），在公募基金推动下终于又向前跨出新的一步。国内首只公募REITs——鹏华前海万科REITs封闭式混合型发起式证券投资基金,于6月26日起正式发行。$$根据基金招募说明书，鹏华前海万科R</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGilnkthlxGLdPEYk8j8cKDmcyEAK7H3kkuYUGwm5zSSWptzWKZDF0O6JRZw0jvikwAfL0qyW4Ylj&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27Dc5veya0AwfRfqfvQXNJnkQjuXmviil3ciJ5qqdT6FyaD570ksP0GvBs7DCawjBEe2njPvf4lP1Wu67RncZ3EV849Fdvzb9zkVU5kDE0Qz8rZgFUfG9f5&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>信披合规底线不容挑战</t>
+          <t>龙头房企5月销售大增</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>费杨生</t>
+          <t>李香才</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1083,32 +1083,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2016-08-09</t>
+          <t>2015-06-11</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>“谁到底买没买万科”成为近日资本市场关注的焦点，万科A股价亦在各种传闻中连续上涨。再联系此前“宝万华大战”中各方的明争暗斗，某种程度来说，“万科事件”演变至今，正在挑战信息披露合法合规的底线。$$“万科事件”暴露的信息披露问题主要包括两大方面。一是</t>
+          <t>万科A、保利地产、招商地产、金地集团等房企陆续公布5月销售业绩，均实现大幅增长，1-5月累计数据较去年同期也实现增长。在中央和地方层面楼市刺激政策作用之下，近期房地产市场逐渐回暖。业内人士认为，下半年楼市刺激政策或将延续，部分城市供需关系有望得以改善，尤</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGp1I0ZVXwET4Fk_ZK2Szt3QPOhrvjcvNImztKQZOJE8W5d5bsoR3RqdplICJRolM827WmmZD10i2&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27Dc5veya0AwfRfqfvQXNJnkQjuXmviil3ciJ5qqdT6FyaD570ksP0GlEkdelPUxXMpcXbzQ6cw-Mu-qtlmIIiQxiJgQHJdl0CID3pnWO7jelZ4En7AEHRP&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>资金鏖战万科  两百亿筹码打出“权重热”</t>
+          <t>公募REITS开创基金投资新方向</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>徐伟平</t>
+          <t>张昊</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1118,32 +1118,32 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2016-07-07</t>
+          <t>2015-06-11</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>年度大戏“万科归来”本周在A股上演。万科A复牌首日一字跌停，筹码蜂拥而出。但在第二个跌停板上，宝能系大手笔增持，当日万科A虽然没有打开跌停板，但成交显著放大。$$周三大戏渐入高潮。万科A早盘低开冲高，而后快速回落，全天均在震荡，临近收盘抢筹资金涌入</t>
+          <t>6月8日，鹏华前海万科REITs封闭式混合型发起式证券投资基金正式完成注册，成为国内首只获批的公募REITs基金。从投资人配置类型来看，REITs往往被海外投资人定义为股票、债券、货币之外的第四类资产。根据中国基金业协会披露的数据，2015年4月底公募基</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGocUh9av4FbuMif57GYvRfwWy3CPX0uXfTUqHlefycEFAoYX7cr1MefOC0bN6k_jZg8l6agiPyoY&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25XibambX2pbHypXRBrpaTSsh7EIyqqwcJ8D7TEMkHigCk8hBUzL9XEDSA_ztmVbFqarnKX4l-RGSj-PvLKW_yX1PAUyHaprUq5piN6k6tnP3qwP0eftTT1&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>万科商战硝烟漫天  公司治理警钟长鸣</t>
+          <t>房企结盟折射地产新格局</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>张莉</t>
+          <t>于萍</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1153,32 +1153,32 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2016-06-30</t>
+          <t>2015-05-15</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>从去年“宝能系”大举收购万科股权、安邦保险抢筹进场，到近期万科重组预案遭股东方华润集团强势反对，再到万科“内部人控制”纷争四起，近一年来，在多方利益纠缠、市场人士陆续站队喊话以及监管部门介入的情况下，围绕万科股权争夺的商业版“权力游戏”似有愈演愈烈之意。</t>
+          <t>5月14日万达和万科签订战略合作框架协议，双方将展开长期性合作。如果说此前房企转型主要是自身业务拓展或整合的话，那么此次“万万”合作，标志着房企发挥各自比较优势、“结盟”转型时代的到来。在地产“新常态”下，房企转型将向着分工与协作方向发展。$$从</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGrZMn1pz0XKyfLvzS01PsvlewM5hJfJKHtI-nnn1ohHAZQVUXajlYlyET2xrOJpLqhrh_7hXZ2cS&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25XibambX2pbHypXRBrpaTSsh7EIyqqwcJ8D7TEMkHigP1JH8QpSVbfVrcfJU1T_l4rNB-XetcEt9Cuo36c8jduy2qqOMyMsThEGhsXIyTBkCr4rOV0_0Gy&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>REITs  梦想照进现实</t>
+          <t>巨头合作震动业界  市场竞争更趋激烈</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>张昊</t>
+          <t>于萍</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2015-06-27</t>
+          <t>2015-05-15</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1196,24 +1196,24 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>曾经被中国房地产人士期盼已久的REITs（房地产信托投资基金），在公募基金推动下终于又向前跨出新的一步。国内首只公募REITs——鹏华前海万科REITs封闭式混合型发起式证券投资基金,于6月26日起正式发行。$$根据基金招募说明书，鹏华前海万科R</t>
+          <t>“一见钟情”、“门当户对”，在5月14日万达集团与万科集团的战略合作签约仪式上，万科总裁郁亮这样形容双方的合作。作为国内商业地产及住宅地产各自领域的龙头企业，“万万”合作引发了地产行业的震动，也成为房企转型值得借鉴的样本。万达集团董事长王健林透露，如果双</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGvH4uzIU3rMzgFDAXdkqiPDSHQS5DvSFZFDcfkNSDlJotgZgVbMH-94ttExBY7n8JgDRyqlec79Y&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25XibambX2pbHypXRBrpaTSsh7EIyqqwcJ8D7TEMkHigP1JH8QpSVbfy0N2z6FQWEI_2UP4KP8PRoaERtBa7V1VmpRqolDw1j0OQC1f6sW5PiKa24p4I3WB&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>龙头房企5月销售大增</t>
+          <t>房企牵手转型  “万万”要面对现实</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>李香才</t>
+          <t>徐学成</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2015-06-11</t>
+          <t>2015-05-15</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1231,24 +1231,24 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>万科A、保利地产、招商地产、金地集团等房企陆续公布5月销售业绩，均实现大幅增长，1-5月累计数据较去年同期也实现增长。在中央和地方层面楼市刺激政策作用之下，近期房地产市场逐渐回暖。业内人士认为，下半年楼市刺激政策或将延续，部分城市供需关系有望得以改善，尤</t>
+          <t>万科、万达14日宣布，双方将通过联合拿地、合作开发的形式“强强联手”，即由万科开发项目中住宅部分，万达开发项目中商业部分，以实现优势互补。此外，双方表示将共同探讨基于现有项目进行合作开发的可能性。$$“万万没想到”中国房地产行业两大千亿级巨头的合</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltRGC6W7l5P5rMslLaDgAiCK9Imgh-obBvUX19qxgHhGvH4uzIU3rMzS3CdvU3JJnKYxJWh_n1Mn5KcCgdCVGi7YDwkahvzVrCbiD5JeU18GY9wTNu_nI0-&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25QpEmyZfzJjhNAWiJ0b-IplsVRUQm-yBDM0D4H74cFWJjZ20qZf9K2E2yNlntSfugh7zj8u60BWm3_xOsQ_jCxUdhySYReUjaOR2peuDtBVZWCCOL7V9Pg&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>公募REITS开创基金投资新方向</t>
+          <t>王石：万科的变化刚刚开始</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>张昊</t>
+          <t>于萍</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2015-06-11</t>
+          <t>2015-03-20</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1266,24 +1266,24 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6月8日，鹏华前海万科REITs封闭式混合型发起式证券投资基金正式完成注册，成为国内首只获批的公募REITs基金。从投资人配置类型来看，REITs往往被海外投资人定义为股票、债券、货币之外的第四类资产。根据中国基金业协会披露的数据，2015年4月底公募基</t>
+          <t>在房地产市场变革与转型的时代，作为行业龙头的万科又有了新的发展计划。在3月19日由新华网举办的思客讲堂活动中，万科集团董事会主席王石在接受中国证券报记者采访时表示，2015年万科会发生更多转变，将独立三个事业部，发展物业管理、精装修等业务。“万科的变化刚</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_AEtDRs_bXOCqYm4LUVoFQZxzR8QZTFuiJmL3WDV8g1ogSbdffvSDwhrqq5HDqy8RThDb3ycKw3Q6&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25QpEmyZfzJjhNAWiJ0b-IplsVRUQm-yBDM0D4H74cFWPKXNNWTpbjH698Vij6T6aDzl2yvZXXV2F8XOBRqEvrBgY6EwebnpCyE3BKZPQysyjCklsNiARHQ&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>房企结盟折射地产新格局</t>
+          <t>技术变革“诱使”经理人创业</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>于萍</t>
+          <t>任明杰</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2015-05-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1301,24 +1301,24 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5月14日万达和万科签订战略合作框架协议，双方将展开长期性合作。如果说此前房企转型主要是自身业务拓展或整合的话，那么此次“万万”合作，标志着房企发挥各自比较优势、“结盟”转型时代的到来。在地产“新常态”下，房企转型将向着分工与协作方向发展。$$从</t>
+          <t>近日，万科集团高级副总裁、明星级职业经理人毛大庆辞职创业。在两会期间“大众创业，万众创新”成为热门话题的背景下，毛大庆的举动再次引发人们对职业经理人创业的关注。业内人士指出，技术变革特别是移动互联网技术的发展无疑是“诱使”职业经理人辞职创业的最重要因素。</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_ACkpKDKFy4ugb0lMkrwSbkp57pmmIYv8jQMUA0ImhBUyOZ9QvyqCeuZYyQhJieztugmvGUd2umL8&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25QpEmyZfzJjhNAWiJ0b-IplsVRUQm-yBDM0D4H74cFWPKXNNWTpbjH8Zg3uiQno_V0kmzn0Pm7dJ58CcG8xuctaUii57_1gOzjrQucpI9zMySctTvge6-Z&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>巨头合作震动业界  市场竞争更趋激烈</t>
+          <t>土地市场降温  房价能否迎来拐点</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>于萍</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1328,32 +1328,32 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2015-05-15</t>
+          <t>2011-05-18</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>“一见钟情”、“门当户对”，在5月14日万达集团与万科集团的战略合作签约仪式上，万科总裁郁亮这样形容双方的合作。作为国内商业地产及住宅地产各自领域的龙头企业，“万万”合作引发了地产行业的震动，也成为房企转型值得借鉴的样本。万达集团董事长王健林透露，如果双</t>
+          <t>房价依旧高位盘整，开发商抢地的火暴场面不再出现，土地市场已降温。北京、上海、广州等地不断出现土地拍卖底价成交甚至流拍的情况。有开发商认为，土地市场趋冷预示着开发商对未来房价的悲观预期，地价下跌后或迎来房价的拐点。$$底价成交频现$$土地市场降温向</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_ACkpKDKFy4ugt6BuNeK8nYe6OqnzD1p5Zu52zgfjoaD2DZhWGbugkg6czZxy_RqhCljVSeCC3gx9&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph25QpEmyZfzJjhNAWiJ0b-IplsVRUQm-yBDM0D4H74cFWBpkIRck3RXujw4F4MYGsv40HjpKSJfRM67Dind21R7qFHFws2Uj_vMtdKjARhcor9fEbt16yP-P&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>房企牵手转型  “万万”要面对现实</t>
+          <t>一线房企四月销量现拐点</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>徐学成</t>
+          <t>汪珺</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1363,32 +1363,32 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2015-05-15</t>
+          <t>2011-05-11</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>万科、万达14日宣布，双方将通过联合拿地、合作开发的形式“强强联手”，即由万科开发项目中住宅部分，万达开发项目中商业部分，以实现优势互补。此外，双方表示将共同探讨基于现有项目进行合作开发的可能性。$$“万万没想到”中国房地产行业两大千亿级巨头的合</t>
+          <t>上市房企4月份销售数据陆续出炉，万科、保利、金地等一线房企的答卷不尽如人意，销售面积和销售金额增速显著放缓或大幅下滑。分析人士认为，房企下半年销售前景仍不明朗，在销量放缓、存货攀升、资金吃紧等压力下，房地产企业或加大促销力度，以价换量。$$销量现拐</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_ACkpKDKFy4ugtoow2f3nWOP7WUnS4PjKNY3eYNszVJ4JcL6gj1Gl3Pt1AVzKOp3LHwhYkmL7kYdS&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26kDeQlapyuU0zVMTr5TWCXIxY3xheQKomoWg-oLwh-VfWZmNrPa8WkcoAT6yJ6gkps1KfYQM2EhsjosuwVFt4l0fy53HQ9od4s5x0YCGUUMsPDU3w149tR&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>王石：万科的变化刚刚开始</t>
+          <t>津滨发展预计上半年亏损近亿元</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>于萍</t>
+          <t>刘国锋</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1398,32 +1398,32 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2015-03-20</t>
+          <t>2011-04-27</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>在房地产市场变革与转型的时代，作为行业龙头的万科又有了新的发展计划。在3月19日由新华网举办的思客讲堂活动中，万科集团董事会主席王石在接受中国证券报记者采访时表示，2015年万科会发生更多转变，将独立三个事业部，发展物业管理、精装修等业务。“万科的变化刚</t>
+          <t>津滨发展（000897）今日公告，公司预计今年上半年亏损8000万元至1亿元。这是继ST兴业和国兴地产之后，第3家预告上半年业绩亏损的地产公司。$$津滨发展同时公布一季报，公司实现营业收入2.83亿元，同比下降50.77%；归属上市公司股东的净利润</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_ADOEhLko4b_lsbj139BK3mTaGXK8bWJ0GwhBfwv8ZoEuEpLmedT-PAq-P8-J_y0baYeMfTu04GE5&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26kDeQlapyuU0zVMTr5TWCXIxY3xheQKomoWg-oLwh-VXYAhfurNmwGwcMcC3s4yvqI8yMICUn2zxZ2SrSQyGd4fE9nW0zLqdLfal7fDzBsOXpO3RJlnCiq&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>技术变革“诱使”经理人创业</t>
+          <t>万科将坚持快速开发策略</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>任明杰</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1433,32 +1433,32 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2015-03-14</t>
+          <t>2011-04-20</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>近日，万科集团高级副总裁、明星级职业经理人毛大庆辞职创业。在两会期间“大众创业，万众创新”成为热门话题的背景下，毛大庆的举动再次引发人们对职业经理人创业的关注。业内人士指出，技术变革特别是移动互联网技术的发展无疑是“诱使”职业经理人辞职创业的最重要因素。</t>
+          <t>万科（000002）4月20日发布的一季报显示，由于一季度结算资源不多，期内实现结算收入76.7亿元，同比增长4.2%；实现营业收入79.7亿元，净利润12.1亿元，同比分别增长6.2%和7.0%。$$万科一季度实现销售面积303.8万平米，销售金</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_ADOEhLko4b_lgeUQDBGzFeqwptteS_8tslqrLrd3y-MHH0UP15TRwxxvlhb6ET9GTgtY3l51Zi78&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26kDeQlapyuU0zVMTr5TWCXIxY3xheQKomoWg-oLwh-VXYAhfurNmwG_VKZEhEvzXkxnq-Vl0kBf-Yp0qnTPE8zwP9nQ73fAlGCZHS-Bsw_wNNsIHJo6q_P&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>大厨是个机器人</t>
+          <t>307家上市公司首季净利同比增逾四成</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>张昊</t>
+          <t>林喆</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1468,32 +1468,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2013-11-15</t>
+          <t>2011-04-20</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>“我们这个餐厅有三位‘大厨’，一位是厨师，两位是机器人”,深圳万科城第五食堂的负责人蒙珂对中国证券报记者说。$$蒙珂管理的深圳万科城第五食堂是一间社区餐厅。与普通餐厅不同的是，万科城第五食堂不仅有掌勺的大师傅，还购买了两台炒菜机器人。“现在餐厅的菜</t>
+          <t>截至20日，已有300多家上市公司披露2011年一季报。至中国证券报记者发稿时为止，307家上市公司一季度合计实现营业收入2368.17亿元，同比增长34.25%；实现营业利润249.08亿元，同比增长42.15%；实现归属母公司股东的净利润207.26</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_ABayfBf85Rxszc29RAVozENZ9F7aWI4sjxIBTHvqtPz7_kvJLplqilHEtvVX44IwZjav3nMlJy20&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26kDeQlapyuU0zVMTr5TWCXIxY3xheQKomoWg-oLwh-VXYAhfurNmwGpXhwvQ4_ZPp2HoLlBbzWIRqR73uV9gIZEakejn2_BToSep4gKg3qfq7NuKkZRERc&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>龙头房企业绩逆市飘红发出什么信号</t>
+          <t>龙头风光不再  “另类”春风得意</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>杨红旭上海易居房地产研究院综合研究部</t>
+          <t>曹阳</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2011-06-17</t>
+          <t>2011-04-19</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1511,24 +1511,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>今年1月“新国八条”出来后，极度看空市场者甚众。笔者当时认为，就全国而言，全年房屋成交量和成交价格不会明显下跌。$$近日，一线上市房企的业绩可以说明一些事实，验证一些预判。万科、保利、金地、中海等11家地产龙头都已披露5月业绩，销售金额共计542亿</t>
+          <t>4月18日，在银行板块调整的背景下，地产板块引领大盘尾市翻红。截至18日，申万房地产指数2011年以来的累计涨幅高达14.97%，位居所有行业指数第二位。实际上，由于受政策掣肘，以万科为首的传统地产龙头今年以来表现平平；真正引领地产板块崛起的是“地产+X</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_ACEuHkSnEECBBQYxMpk_RlW0ftTTUU46uLP0sJqSMTgABy2vE62Id9TUkxkgKnEmR6TVTX91hXkJ&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27xGRhhkgbVQorBMJ3_t7qP5vhApb6ElE-OiZa1O9W6zxSvPQFiZz6_QWunEXTBE3yFCEqIDeAGznKPJxmM2uCwku2nJl371suj930MCNVglr_HivkTECr9&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>土地市场降温  房价能否迎来拐点</t>
+          <t>一线房企调低2011年增长预期</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>林喆</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2011-05-18</t>
+          <t>2011-03-24</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1546,24 +1546,24 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>房价依旧高位盘整，开发商抢地的火暴场面不再出现，土地市场已降温。北京、上海、广州等地不断出现土地拍卖底价成交甚至流拍的情况。有开发商认为，土地市场趋冷预示着开发商对未来房价的悲观预期，地价下跌后或迎来房价的拐点。$$底价成交频现$$土地市场降温向</t>
+          <t>截至目前，“万保招金”及部分港股地产公司均已披露2010年年报，从这些公司新年度的发展计划及行业展望看，一线开发商普遍对2011年的房地产市场持谨慎态度。调低增长预期、谨慎扩张土地储备、适度增加商业地产项目成为各大房企今年的主要选择。$$新开工意愿</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplsP0hZaB1Xj7QvdpEo1n9cM73w8np7hSQKqYGGc2js_AJwqbMlZIEJZ7ymC-FO45NRuTTCT8D96ypvE5mrd0F-7H6rhkq35L3-M0Y9T_Met-LFi7UtSvtmk&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27xGRhhkgbVQorBMJ3_t7qP5vhApb6ElE-OiZa1O9W6z7KlHVku0myG6SVRbDjeSiO6dXc68y4uewveof1hG01J12iTQT5p7PqkPKAUWt16hX7rYyQ1mRUx&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>一线房企四月销量现拐点</t>
+          <t>万科拟授予1.1亿份股票期权</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>汪珺</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2011-05-11</t>
+          <t>2011-03-23</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1581,24 +1581,24 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>上市房企4月份销售数据陆续出炉，万科、保利、金地等一线房企的答卷不尽如人意，销售面积和销售金额增速显著放缓或大幅下滑。分析人士认为，房企下半年销售前景仍不明朗，在销量放缓、存货攀升、资金吃紧等压力下，房地产企业或加大促销力度，以价换量。$$销量现拐</t>
+          <t>万科A（000002）公告，拟向激励对象授予总量1.1亿份股票期权，占授予时公司股本总额的1%，计划授予的股票期权的行权价格为8.89元。公司还计划与华润集团旗下金融平台开展合作，拓宽融资渠道。$$受激励对象约占3.88%$$2007年和20</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoIPnmGup1O-zYfherd89X5aXVoya7NXN101tCd6VWzXA2NpNip5_SHpT4gAM7H514O93PiXC0W_Vq&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27xGRhhkgbVQorBMJ3_t7qP5vhApb6ElE-OiZa1O9W6z7KlHVku0myGUGvszfaQf3ksh0NTaKfJEfHp_PL1r_gx9XpBXLq4PaEWeG8lVPxcAoyYadtDyCBJ&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>津滨发展预计上半年亏损近亿元</t>
+          <t>调控撼动高房价  降价潮悄然涌动</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>刘国锋</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2011-04-27</t>
+          <t>2011-03-16</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1616,24 +1616,24 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>津滨发展（000897）今日公告，公司预计今年上半年亏损8000万元至1亿元。这是继ST兴业和国兴地产之后，第3家预告上半年业绩亏损的地产公司。$$津滨发展同时公布一季报，公司实现营业收入2.83亿元，同比下降50.77%；归属上市公司股东的净利润</t>
+          <t>“新国八条”和地方限购政策威力开始显现，已经高位盘整了近两个月的房价出现松动，一线城市的开发商从暗中变相促销变为直接优惠降价，楼市降价潮悄然来袭。业内人士预计，由于2010年新房开工量大增，未来几个月新盘将集中上市，同时开发商资金链趋紧，房价或将步入下降</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoIISlvgEKWJFzjqKmgFL5WA-uISYsrlbbLAVzUK_qxmJ7wxPeIAUKCtOhV1i3hxxlD5OY_45Z4siO&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27xGRhhkgbVQorBMJ3_t7qP5vhApb6ElE-OiZa1O9W6z7KlHVku0myG3FZ1-HEedNVchhSwYOn1w_4kW8PdwoafOKmSSWw1T8cUuVt2TgflPrmUke8owTAf&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>万科将坚持快速开发策略</t>
+          <t>郁亮：万科今年没有再融资计划</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>万晶;于萍</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2011-04-20</t>
+          <t>2011-03-09</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1651,24 +1651,24 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>万科（000002）4月20日发布的一季报显示，由于一季度结算资源不多，期内实现结算收入76.7亿元，同比增长4.2%；实现营业收入79.7亿元，净利润12.1亿元，同比分别增长6.2%和7.0%。$$万科一季度实现销售面积303.8万平米，销售金</t>
+          <t>3月8日，万科（000002）总裁郁亮表示，今年万科没有资本市场再融资计划，万科已经连续四年没有在资本市场增发融资。未来公司将继续坚持“不囤地、不捂盘、不当地王”的策略，并继续参与保障房建设。$$继续参建保障房$$面对严厉的房地产调控政策，郁</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoIISlvgEKWJFzDBaBASH3gzCd3Ho_Ihe4FBTuRwCUZpW5_1dkJe6oUAb2gykW8v88WY-w7ttykKpg&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24KCPaIrXhIqtTBqafIy-ncY3Ncebe3-UcNRxyDwadHMpcsu4eAHgatgwfzd5CawFVz1GH9qFik7m2BeS_bQc7a5if9fmEuUBmJ8OAZSPOIx_iV24_kln2J&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>307家上市公司首季净利同比增逾四成</t>
+          <t>万科去年净利增36.7%至72.8亿元</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>林喆</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2011-04-20</t>
+          <t>2011-03-08</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1686,24 +1686,24 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>截至20日，已有300多家上市公司披露2011年一季报。至中国证券报记者发稿时为止，307家上市公司一季度合计实现营业收入2368.17亿元，同比增长34.25%；实现营业利润249.08亿元，同比增长42.15%；实现归属母公司股东的净利润207.26</t>
+          <t>万科（000002）3月8日发布2010年年报，实现营业收入507.14亿元，较2009年微增3.75%；归属上市公司股东的净利润为72.8亿元，同比增长36.65%，基本每股收益0.66元。万科还推出每10股派送人民币1.0元（含税）现金股息的分红方案</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoIISlvgEKWJFzuOPD2NsCyyTIoUj5SW4h9N66KENHCDUp6rZQvzecQ7ncrsuJ2vk6gpA0iZ4VUr7a&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24KCPaIrXhIqtTBqafIy-ncY3Ncebe3-UcNRxyDwadHMpcsu4eAHgatJP__wVn7EH1MYAnuwGlLsKlQflFIhSVJ45ZOkYprTZetmFirUFNQBeHOQdZNi4e8&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>龙头风光不再  “另类”春风得意</t>
+          <t>2月万科销售额同比增142%</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>曹阳</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2011-04-19</t>
+          <t>2011-03-04</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1721,24 +1721,24 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4月18日，在银行板块调整的背景下，地产板块引领大盘尾市翻红。截至18日，申万房地产指数2011年以来的累计涨幅高达14.97%，位居所有行业指数第二位。实际上，由于受政策掣肘，以万科为首的传统地产龙头今年以来表现平平；真正引领地产板块崛起的是“地产+X</t>
+          <t>万科（000002）4日公布了2月份销售报告。2月，公司实现销售面积为54.9万平方米，销售金额60.8亿元，分别比2010年同期增长159.8%和141.8%。今年1-2月，万科累计实现销售面积220.3万平方米，销售金额261.8亿元。$$万科</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoIISlvgEKWJFzjdRH28shkPhMu7POr2zaXSM3fmBgBazMdR-3i-ItzXXMx5IyAraP0eVkL9wvCw80&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24KCPaIrXhIqtTBqafIy-ncY3Ncebe3-UcNRxyDwadHMpcsu4eAHgat19cNrbZ5hYOYar1Zn85bzS6rWtWeXMxG-bMgfBf1ltV-BoqE8o-EE75Kvrg0EKIJ&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>多数上市房企首季业绩大增</t>
+          <t>三把火炙烤  地王高烧难退</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>林喆</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2011-04-13</t>
+          <t>2011-02-23</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1756,19 +1756,19 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>尽管遭到了一系列严厉房地产调控政策的影响，但多数上市房地产企业一季度销售业绩依然大幅增长，而在销售面积、销售金额增长的同时，销售均价也继续维持在高位。有专家指出，调控政策对一线城市销售影响较大，一季度销售业绩增长明显的上市房企大多是在二三线城市布局较早、</t>
+          <t>权威人士透露，住房和城乡建设部正会同国土部等有关部门草拟方案，计划在今后招拍挂出让的商品住宅建设用地中提高政策性住房的配建比例；同时，有关部门将对保障房承建商的资质做出规定。$$业内人士称，新“国八条”之后，部分城市的地王纪录仍在被刷新，上海、昆明</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoIISlvgEKWJFzK80lERQ63oRJMduValhm9_bGnBt3iJMVsp_bT_SewA5YcBbwiAPTD6XL_xmdssIV&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph24KCPaIrXhIqtTBqafIy-ncY3Ncebe3-UcNRxyDwadHMkYE9k5E0JwdkL0GgPBQkH8ZvBQeoAYnDkYGX6AAvUQEKoxd8QAG0In4fzFcnLuZNxl0kyP51hPL&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>一线房企调低2011年增长预期</t>
+          <t>银行地产笑脸多</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2011-03-24</t>
+          <t>2011-01-13</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1791,24 +1791,24 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>截至目前，“万保招金”及部分港股地产公司均已披露2010年年报，从这些公司新年度的发展计划及行业展望看，一线开发商普遍对2011年的房地产市场持谨慎态度。调低增长预期、谨慎扩张土地储备、适度增加商业地产项目成为各大房企今年的主要选择。$$新开工意愿</t>
+          <t>据Wind统计，截至1月12日，在申银万国行业分类下的124家A股房地产公司中，40家公司公布了2010年全年业绩预告。其中，25家预增，4家续盈，预喜公司占比达72.5%。银行业中只有2家公司公布业绩预告、1家公司公布业绩快报。从前三季度业绩和全年信贷</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoINd0Oa6xRKQpJFeAlhq4wKe276VhGvzESEXjsR_8en98CkpwnUIBYfxzV6668AUmPTe4tYU3sTsq&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27tGO6ksBX3oA53a1xWoJV33nbrEjFMduh-1QZAVM-GvvXf_VfMlFRFnSvQjgRXXyEUVseyNNfL6z50E-pdwvoCus3sKPU91NUoPwayrNaoRIMXLvv7tkiC&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>万科拟授予1.1亿份股票期权</t>
+          <t>开发商挥金如土  出让金放出天量</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>于萍;王锦</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1818,32 +1818,32 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2011-03-23</t>
+          <t>2010-12-29</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>万科A（000002）公告，拟向激励对象授予总量1.1亿份股票期权，占授予时公司股本总额的1%，计划授予的股票期权的行权价格为8.89元。公司还计划与华润集团旗下金融平台开展合作，拓宽融资渠道。$$受激励对象约占3.88%$$2007年和20</t>
+          <t>2010年已进入倒计时，各地展开了新一轮供地大战。在土地市场夺地硝烟的背后，土地出让金正突飞猛进地增长。业内预计，北京市今年的土地出让金有望超过1600亿元，上海有望突破1500亿元，天津也力争达到1000亿元。京津沪三地今年实现的土地收入将在4000亿</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoINd0Oa6xRKQpon-CfJ5D-dQVYTBgqMnRcT3adQyu-Ba04UlivKVmurGZWT1h0WRijqm1HIwnC43Y&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27tGO6ksBX3oA53a1xWoJV33nbrEjFMduh-1QZAVM-Gvix9krOYk0KOYJlfbM_7ba3eWlSoWT4_INVRyQ4L6KrPSwUua4jyKesMFQsGQMeiN2qsTl_Fup1Q&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>调控撼动高房价  降价潮悄然涌动</t>
+          <t>房地产业  在制度变革中寻求新平衡</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>于萍;王锦;林喆</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1853,32 +1853,33 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2011-03-16</t>
+          <t>2010-12-28</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>“新国八条”和地方限购政策威力开始显现，已经高位盘整了近两个月的房价出现松动，一线城市的开发商从暗中变相促销变为直接优惠降价，楼市降价潮悄然来袭。业内人士预计，由于2010年新房开工量大增，未来几个月新盘将集中上市，同时开发商资金链趋紧，房价或将步入下降</t>
+          <t>在涨价和调控声中，我国房地产市场即将走过2010年。这一年，商品房销售额有望突破5万亿元，创历史新高；这一年，房企夺地大战频频上演，地王再度涌现；这一年，政府调控连出重拳，土地出让、保障房建设等制度性变革逐步启动……$$在限购、加息等抑制投资与投机</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoINd0Oa6xRKQpk3MgT1z-WvdBSJ6SHKd5JN-5p8bhYfUiKWKNudvQybhI243vctDu99uWExR8yjqt&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27tGO6ksBX3oA53a1xWoJV33nbrEjFMduh-1QZAVM-Gvix9krOYk0KOl2oBMZFlGjdwyjWo9SCtqhZnjo6q-Bu1vva1uhlyEJsgdsARHSBBJnUWu6HrBYFk&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>郁亮：万科今年没有再融资计划</t>
+          <t>龙头企业描绘“十二五”愿景
+地产机械力求高增长 钢铁化工期待大转型</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>万晶;于萍</t>
+          <t>李少林</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1888,27 +1889,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2011-03-09</t>
+          <t>2010-12-09</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3月8日，万科（000002）总裁郁亮表示，今年万科没有资本市场再融资计划，万科已经连续四年没有在资本市场增发融资。未来公司将继续坚持“不囤地、不捂盘、不当地王”的策略，并继续参与保障房建设。$$继续参建保障房$$面对严厉的房地产调控政策，郁</t>
+          <t>“十二五”即将开局，不少上市公司纷纷公布自身的十二五规划。房地产、工程机械、白酒等行业的企业对未来快速发展充满信心，一些公司提出未来五年业绩翻番的目标；但在经济结构调整、节能减排的背景下，化工、钢铁等传统行业的企业将面临严峻考验，期待华丽转型，由大变强。</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1yplvn-leSyGj8-QNBX_qW9ypYAtdvgFANOY-jHZFr77OoINd0Oa6xRKQp-Uec78PIastxNnI3dQqB4e0xR5JZawZgy7KyvGRmbi9xMzS2MI8qDMjkOW74sjRK&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph27tGO6ksBX3oA53a1xWoJV33nbrEjFMduh-1QZAVM-Gvix9krOYk0KOirghoZftCO3l7-ldLRFUsx7ub8QNUx-6zeq9nwpaJKOLMtVZilj5-eiCuCQpJ76j&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>万科去年净利增36.7%至72.8亿元</t>
+          <t>二十年崛起  市场孕育万科样本</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1923,34 +1924,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2011-03-08</t>
+          <t>2010-12-01</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>万科（000002）3月8日发布2010年年报，实现营业收入507.14亿元，较2009年微增3.75%；归属上市公司股东的净利润为72.8亿元，同比增长36.65%，基本每股收益0.66元。万科还推出每10股派送人民币1.0元（含税）现金股息的分红方案</t>
+          <t>在中国股市的每个纪念时刻，人们总会提起一个上市公司的名字——万科，万科的成长之路与中国资本市场紧密相连。这家1984年在深圳悄然诞生的贸易公司，在资本市场的推动和支持下，如今已经华丽转身为年销售额接近千亿元规模的地产巨头、全球最大的住宅开发商。$$</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04DYTrm6cvFu2_QhskMguqV5Kz8Bk2xu46kS9QzoxcSMke7T_MG7SOWuMKqG_UHesFnxfMPIwozkog&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26pMEC0rcGmAUsnsMmZ2uQnPcuDSlTOk772t4bE3BvqTtEspyOtGGRXlTcC1b1JUUhixHCpc3rgSphsKfTm7HAeDjbuqeSV-u4XJa-gjPQHEw==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2月万科销售额同比增142%</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>万晶</t>
-        </is>
-      </c>
+          <t>一二线城市冷热不均  高档住宅销售火爆</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr">
         <is>
           <t>中国证券报</t>
@@ -1958,32 +1955,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2011-03-04</t>
+          <t>2010-11-26</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>万科（000002）4日公布了2月份销售报告。2月，公司实现销售面积为54.9万平方米，销售金额60.8亿元，分别比2010年同期增长159.8%和141.8%。今年1-2月，万科累计实现销售面积220.3万平方米，销售金额261.8亿元。$$万科</t>
+          <t>"9·28"楼市调控措施推出以来，各地楼市走向如何？中国证券报记者兵分六路，深入北京、上海、广州三个一线城市和成都、济南、武汉三个二线城市采访发现，上述六个城市楼市价格走向不一，分化明显。$$上海、济南逆市上涨，两地的高档楼盘都较受追捧。所不同的是</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04DYTrm6cvFu2_S-6X6cy1BPlutJaEix7hMCDe9zIL2UqJxahtxU-uoFBE6b8O6A6_QvTkRQ-jl6CM&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26pMEC0rcGmAUsnsMmZ2uQnPcuDSlTOk772t4bE3BvqTs2wzp-2hen_Grv2LqhZL0_s8qjQqily6Wp8CrzXFlZ9GUsdBRNyM81q53qTUb35oH2QfYg5sO1C&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>三把火炙烤  地王高烧难退</t>
+          <t>开发商试探买房人底线</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>林喆</t>
+          <t>林喆;万晶</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1993,32 +1990,32 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2011-02-23</t>
+          <t>2010-11-24</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>权威人士透露，住房和城乡建设部正会同国土部等有关部门草拟方案，计划在今后招拍挂出让的商品住宅建设用地中提高政策性住房的配建比例；同时，有关部门将对保障房承建商的资质做出规定。$$业内人士称，新“国八条”之后，部分城市的地王纪录仍在被刷新，上海、昆明</t>
+          <t>被业内视为“风向标”的万科，在武汉高调促销。11月，万科武汉公司旗下在售的五个楼盘：万科红郡、万科金域华府、万科魅力之城、万科高尔夫、万科城，共同推出优惠活动，每周每楼盘各推出10套“一口价”特供房源，购房即送11888元家电基金等。$$2007年</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04DeI_QPMgZmrEmz4flLSLWGREhSrVKaXeqIbPPk8lZQHxuppIl9rWb2WsqQWlwOpVhlFGELBRyA_0&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26pMEC0rcGmAUsnsMmZ2uQnPcuDSlTOk772t4bE3BvqTs2wzp-2hen_Xs36L-SiZXsayJV89Ey3QMDyId75HBEBk-mGj9xN5uAa4DU3_d1WfcapP1DS124Q&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>开发商面临转型</t>
+          <t>房企并购整合渐趋活跃</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>于萍</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2028,27 +2025,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2011-01-21</t>
+          <t>2010-11-17</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>在近期由华本机构主办的“2011中国地产领袖年会”上，众多开发商和专家表示，2011年房地产市场的调控政策仍在继续，开发商将面临转型。$$“2011年我国房地产业将面临几大趋势，包括:刚性需求进一步加强；商品房、保障房的双轨制基本确定；保障房供应量</t>
+          <t>楼市成交在严厉调控之下渐趋冷清，开发贷款也呈收紧态势，房地产企业在双重打压之下资金链趋于紧张，房企并购整合骤然活跃。清科研究中心报告显示，今年前三季度，房地产行业并购交易非常活跃，共完成50起并购案例，是2009年全年并购案例数的2.5倍，并购金额为12</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04DSZNR6zXye0Zf8dEMpJmi52GrlnPUnTcvVC3s5aU_URkO8E5YU1Tujy_MWYj9fzNe-HTLN037kkV&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26pMEC0rcGmAUsnsMmZ2uQnPcuDSlTOk772t4bE3BvqTs2wzp-2hen_h97d7TaP08qKKG3Vn4zC0t9LR2zTPXxUPWNXv3VzhKZ0Rkrck8-s9w==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>银行地产笑脸多</t>
+          <t>楼市大鳄集体增仓商业地产</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2063,32 +2060,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2011-01-13</t>
+          <t>2010-11-03</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>据Wind统计，截至1月12日，在申银万国行业分类下的124家A股房地产公司中，40家公司公布了2010年全年业绩预告。其中，25家预增，4家续盈，预喜公司占比达72.5%。银行业中只有2家公司公布业绩预告、1家公司公布业绩快报。从前三季度业绩和全年信贷</t>
+          <t>近几个月来，龙湖地产的商业运营团队一直奔波于东亚各国的主要城市，考察这些城市的商业布局、设计特点、投资回报状况，为龙湖未来的商业地产计划出谋划策。不仅仅是龙湖。自4月中旬“国十条”出台以来，传统以开发住宅为主的大型地产商纷纷涉足商业地产。万科、恒大、保利</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04DSZNR6zXye0ZaANZFAKgyc-Q8VFUQvDrLS6n6HJRTLndxBvRJNKQAKPd4rtMpphRbB9vyhcbcIfL&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26pMEC0rcGmAUsnsMmZ2uQnPcuDSlTOk772t4bE3BvqTs2wzp-2hen_ZX8KLV-taw0IOGMD8V1E6WtVMbGP5Hy-VEZw1y2m3Yjyi3kDbCSqPQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>万科去年销售额达1081.6亿元</t>
+          <t>前三季三项费用同比升21%</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>万晶</t>
+          <t>林喆</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2098,32 +2095,32 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2011-01-05</t>
+          <t>2010-10-26</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>万科A(000002)发布的最新公告显示，2010年万科实现销售面积897.7万平方米，销售金额1081.6亿元，同比分别增长35.3%和70.5%，成为全国首个年销售额达到千亿级的住宅企业。与此同时，万科旗下的北京和深圳两家子公司年销售额也突破百亿，</t>
+          <t>据WIND数据统计，截至10月25日，可比的721家A股上市公司前三季度三项费用合计达1549.21亿元，同比上升20.85%；其中第三季度三项费用合计为535.76亿元，环比上升1.85%。$$销售费用增幅明显$$从同比数据看，三项费用中销</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04DSZNR6zXye0ZtyKdMdMxAJLSdrEi1Rk4O5kMWXVHhevza1doQ2A1hhifFGds4E62rMzaxqxCydyl&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26pMEC0rcGmAUsnsMmZ2uQnPcuDSlTOk772t4bE3BvqTqRqKaiBhVhM-ZMdeqxWl0OkMMn9BKYC58W5-ZJwjvL1DA9oE0ask2A7XIn2Qgj70Srydj2k3yuv&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>开发商挥金如土  出让金放出天量</t>
+          <t>万科称收购深圳建设股权尚在磋商</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>于萍;王锦</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2133,7 +2130,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2010-12-29</t>
+          <t>2010-10-26</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2141,24 +2138,24 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2010年已进入倒计时，各地展开了新一轮供地大战。在土地市场夺地硝烟的背后，土地出让金正突飞猛进地增长。业内预计，北京市今年的土地出让金有望超过1600亿元，上海有望突破1500亿元，天津也力争达到1000亿元。京津沪三地今年实现的土地收入将在4000亿</t>
+          <t>曾有过辉煌历史的深圳市建设(集团)有限公司近日再度成为关注焦点，有消息称建设集团总经理私下收购员工股权，亦有消息称万科与平安信托竞购其股权。深圳市万科房地产有限公司25日回应称，已与建设集团法定股东的代表进行了沟通，目前该事项处于常规的议价及条款磋商程序</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04Dfcjly9wq0zzXjDlLGLSQKOq-R6ODOc3htE9hKXd401V4LZfgj7ZXfl_SLsZiqSnl-fsJ3BcPwt_&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26MKvK6zyyqFQp4LiA7KyAo-exz6rWXbWb58MDJPgRZAc9S146nbFLq0cmtPvxV0-p7pK-xCNoNa6yFXD10e5Ar2UzFhibIrlVC5kFcGLIQwEwT_cf8GqGY&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>房地产业  在制度变革中寻求新平衡</t>
+          <t>万科重启股权激励计划</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>于萍;王锦;林喆</t>
+          <t>万晶</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2168,7 +2165,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2010-12-28</t>
+          <t>2010-10-25</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2176,24 +2173,24 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>在涨价和调控声中，我国房地产市场即将走过2010年。这一年，商品房销售额有望突破5万亿元，创历史新高；这一年，房企夺地大战频频上演，地王再度涌现；这一年，政府调控连出重拳，土地出让、保障房建设等制度性变革逐步启动……$$在限购、加息等抑制投资与投机</t>
+          <t>万科A（000002）25日公布了董事会刚刚审议通过的2010年A股股票期权激励计划草案。公司拟向851名激励对象授予总量1.1亿份的股票期权，占目前股本总额的1.0004%，激励对象人数占万科在册员工总数的3.94%。$$万科同时发布的三季报显示</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04Dfcjly9wq0zzye3r5nMuzg6yq2g1u9JGUP_jCvY00rT_bVyUimMK4pJDmgbqZSD8yzrvx6GvmipF&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26MKvK6zyyqFQp4LiA7KyAo-exz6rWXbWb58MDJPgRZAc9S146nbFLqJT8CepvHOSssZ_5MQT7n0Yt0gYa5xDRiQ2DkYzfCh8VZb6csM0FvxQ==&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>年末房企重燃夺地大战</t>
+          <t>开发商：提高周转率  进军保障房</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>王锦;于萍</t>
+          <t>林喆</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2203,7 +2200,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2010-12-22</t>
+          <t>2010-10-08</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2211,12 +2208,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>在调控“风声”最紧的2010年，当我们年末盘点销量之时，不禁要为各地产商所取得的“骄人”成绩而咋舌。据业内保守估计，2010年全国商品房销售额将有望超过5万亿元，达到5.3万亿元左右，同比增长约20%。2010年，全国GDP预计在37万亿元左右，商品房销</t>
+          <t>“新一轮调控政策的特点是‘一刀切’，这对市场的影响将立竿见影。从财务指标分析，目前，地产上市公司的负债率普遍偏高，平均比2009年高出20%左右；大多数房企将调整策略应对市场趋冷。”在SOHO中国（0410.HK）董事长潘石屹看来，四季度开始，国内住房市</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://kns.cnki.net/kcms2/article/abstract?v=BBImVa1ypltroM-sG4f3SROMP2BRoqOuplPQ-wOdOUDW2HS1Ev04Dfcjly9wq0zz77rJNoBbVjOo-8mGo5NuzBiVfpMThnHzX0eCDC8i6ZOYZk-ZdhlTXi49sNy8wPtZ&amp;uniplatform=NZKPT&amp;language=gb</t>
+          <t>https://kns.cnki.net/kcms2/article/abstract?v=2O5crrwph26MKvK6zyyqFQp4LiA7KyAo-exz6rWXbWb58MDJPgRZAc9S146nbFLqrSobKa0XD8leHljyHiTfz-q30XwcJ54i1H1WeWdwNIcL7Y4d_LDHcknSV5iWT34_&amp;uniplatform=NZKPT&amp;language=gb</t>
         </is>
       </c>
     </row>
